--- a/medicine/Enfance/Le_Trombone_du_diable/Le_Trombone_du_diable.xlsx
+++ b/medicine/Enfance/Le_Trombone_du_diable/Le_Trombone_du_diable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Trombone du diable (titre original : The Mystery of the Moaning Cave) est un roman de William Arden paru en 1968 aux États-Unis, faisant partie de la série policière pour adolescents Les Trois Jeunes Détectives.
@@ -514,9 +526,11 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Les trois jeunes détectives » (Hannibal, Peter et Bob) sont en vacances en Californie, au Ranch Sauvage de Jeff Valton et de sa femme, près de la ville fictive de Santa Clara [1]. Ils y font la connaissance du shérif local, de Luke Herdin (régisseur du ranch et employé des Valton), du professeur Welch (historien) et des ouvriers Konrad et Hans. Le professeur Welch leur raconte la légende d'El Diablo, jeune hors-la-loi qui se serait serait réfugié en 1888 dans la Montagne Cornue. La montagne recèlerait aussi un « Monstre souterrain ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Les trois jeunes détectives » (Hannibal, Peter et Bob) sont en vacances en Californie, au Ranch Sauvage de Jeff Valton et de sa femme, près de la ville fictive de Santa Clara . Ils y font la connaissance du shérif local, de Luke Herdin (régisseur du ranch et employé des Valton), du professeur Welch (historien) et des ouvriers Konrad et Hans. Le professeur Welch leur raconte la légende d'El Diablo, jeune hors-la-loi qui se serait serait réfugié en 1888 dans la Montagne Cornue. La montagne recèlerait aussi un « Monstre souterrain ».
 Les trois adolescents s'amusent à explorer les environs. Ils explorent notamment, dans la Vallée-qui-pleure, la Montagne Cornue. Ils rencontrent aux abords de la montagne Castro Cardigo, tombé de cheval en raison des mugissements de l'entrée d'une caverne.
 Lors de leur deuxième venue, ils explorent la caverne où ils rencontrent Ben Jackson et Waldo Turner, deux vieux prospecteurs et chercheurs de filons d'or.
 Lors de leur troisième venue, ils continuent leur exploration et y rencontrent un homme dont les traits d'un masque ressemblent au El Diablo de la légende. L'homme les fait prisonniers mais ils parviennent plus tard à se libérer. Ils continuent leur exploration et arrivent à un lac souterrain. En surgit le « Monstre » : un sous-marin de poche de la marine américaine dirigé par le commandant Paul Crane qui procède à des entraînements. Continuant l'exploration, ils découvrent le squelette du vrai El Diablo : le jeune homme était apparemment mort de faim et de soif. Ils surprennent ensuite Ben Jackson et Waldo Turner qui semblent avoir découvert un filon aurifère ou diamantifère. Ils se rendent compte que les mugissements qui effraient hommes et chevaux à l'entrée de la caverne sont une sorte de signal d'alarme qui alerte les deux prospecteurs lorsque des curieux arrivent tout près de la caverne.
